--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H2">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I2">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J2">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>141.666807369748</v>
+        <v>364.548474315776</v>
       </c>
       <c r="R2">
-        <v>1275.001266327732</v>
+        <v>3280.936268841984</v>
       </c>
       <c r="S2">
-        <v>0.003944538889367402</v>
+        <v>0.006925879860614978</v>
       </c>
       <c r="T2">
-        <v>0.003944538889367401</v>
+        <v>0.006925879860614978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H3">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I3">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J3">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>50.769830065544</v>
+        <v>137.962129246208</v>
       </c>
       <c r="R3">
-        <v>456.9284705898961</v>
+        <v>1241.659163215872</v>
       </c>
       <c r="S3">
-        <v>0.001413623789639221</v>
+        <v>0.002621075658778371</v>
       </c>
       <c r="T3">
-        <v>0.00141362378963922</v>
+        <v>0.002621075658778372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H4">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I4">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J4">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>73.33061893428399</v>
+        <v>166.8283192603307</v>
       </c>
       <c r="R4">
-        <v>659.975570408556</v>
+        <v>1501.454873342976</v>
       </c>
       <c r="S4">
-        <v>0.002041801347387697</v>
+        <v>0.003169490418836649</v>
       </c>
       <c r="T4">
-        <v>0.002041801347387697</v>
+        <v>0.003169490418836649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H5">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I5">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J5">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>23.29330068849867</v>
+        <v>53.94581117371733</v>
       </c>
       <c r="R5">
-        <v>209.639706196488</v>
+        <v>485.512300563456</v>
       </c>
       <c r="S5">
-        <v>0.0006485734529733753</v>
+        <v>0.001024890332825674</v>
       </c>
       <c r="T5">
-        <v>0.0006485734529733752</v>
+        <v>0.001024890332825674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H6">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I6">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J6">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>28.515669824296</v>
+        <v>71.83408263850667</v>
       </c>
       <c r="R6">
-        <v>256.641028418664</v>
+        <v>646.50674374656</v>
       </c>
       <c r="S6">
-        <v>0.0007939839307927801</v>
+        <v>0.001364740936539575</v>
       </c>
       <c r="T6">
-        <v>0.0007939839307927798</v>
+        <v>0.001364740936539575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H7">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I7">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J7">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>92.899365096444</v>
+        <v>481.8881325888854</v>
       </c>
       <c r="R7">
-        <v>836.0942858679959</v>
+        <v>4336.993193299968</v>
       </c>
       <c r="S7">
-        <v>0.002586669137422208</v>
+        <v>0.009155159183784546</v>
       </c>
       <c r="T7">
-        <v>0.002586669137422206</v>
+        <v>0.009155159183784548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I8">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J8">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>2220.96360607735</v>
+        <v>2103.17030682635</v>
       </c>
       <c r="R8">
-        <v>19988.67245469615</v>
+        <v>18928.53276143715</v>
       </c>
       <c r="S8">
-        <v>0.06184001375266789</v>
+        <v>0.03995711379352679</v>
       </c>
       <c r="T8">
-        <v>0.06184001375266787</v>
+        <v>0.03995711379352679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I9">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J9">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
         <v>795.9376437982999</v>
@@ -1013,10 +1013,10 @@
         <v>7163.4387941847</v>
       </c>
       <c r="S9">
-        <v>0.0221619096792344</v>
+        <v>0.01512163370820456</v>
       </c>
       <c r="T9">
-        <v>0.02216190967923439</v>
+        <v>0.01512163370820457</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I10">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J10">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>1149.63158193505</v>
+        <v>962.4738330468167</v>
       </c>
       <c r="R10">
-        <v>10346.68423741545</v>
+        <v>8662.264497421351</v>
       </c>
       <c r="S10">
-        <v>0.0320100845609664</v>
+        <v>0.01828557409046706</v>
       </c>
       <c r="T10">
-        <v>0.03201008456096639</v>
+        <v>0.01828557409046706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I11">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J11">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>365.1778003265666</v>
+        <v>311.2267262979832</v>
       </c>
       <c r="R11">
-        <v>3286.6002029391</v>
+        <v>2801.04053668185</v>
       </c>
       <c r="S11">
-        <v>0.01016792897126717</v>
+        <v>0.005912845801365767</v>
       </c>
       <c r="T11">
-        <v>0.01016792897126717</v>
+        <v>0.005912845801365767</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I12">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J12">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>447.0508375147</v>
+        <v>414.4285884256666</v>
       </c>
       <c r="R12">
-        <v>4023.4575376323</v>
+        <v>3729.857295831</v>
       </c>
       <c r="S12">
-        <v>0.01244758350132457</v>
+        <v>0.007873527984522977</v>
       </c>
       <c r="T12">
-        <v>0.01244758350132457</v>
+        <v>0.007873527984522977</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I13">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J13">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>1456.41814577205</v>
+        <v>2780.131815323533</v>
       </c>
       <c r="R13">
-        <v>13107.76331194845</v>
+        <v>25021.1863379118</v>
       </c>
       <c r="S13">
-        <v>0.04055218100725688</v>
+        <v>0.05281837754428631</v>
       </c>
       <c r="T13">
-        <v>0.04055218100725686</v>
+        <v>0.05281837754428632</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H14">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I14">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J14">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>1148.955897639285</v>
+        <v>2164.403365881615</v>
       </c>
       <c r="R14">
-        <v>10340.60307875357</v>
+        <v>19479.63029293453</v>
       </c>
       <c r="S14">
-        <v>0.03199127095860561</v>
+        <v>0.04112045101859868</v>
       </c>
       <c r="T14">
-        <v>0.0319912709586056</v>
+        <v>0.04112045101859868</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H15">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I15">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J15">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>411.7569722857153</v>
+        <v>819.1110865712507</v>
       </c>
       <c r="R15">
-        <v>3705.812750571438</v>
+        <v>7371.999779141257</v>
       </c>
       <c r="S15">
-        <v>0.01146486901416552</v>
+        <v>0.01556189472123865</v>
       </c>
       <c r="T15">
-        <v>0.01146486901416552</v>
+        <v>0.01556189472123865</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H16">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I16">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J16">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>594.7310359171436</v>
+        <v>990.4959180233944</v>
       </c>
       <c r="R16">
-        <v>5352.579323254292</v>
+        <v>8914.463262210549</v>
       </c>
       <c r="S16">
-        <v>0.01655955790523373</v>
+        <v>0.01881795210783769</v>
       </c>
       <c r="T16">
-        <v>0.01655955790523372</v>
+        <v>0.01881795210783769</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H17">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I17">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J17">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>188.9149314396904</v>
+        <v>320.2879822738431</v>
       </c>
       <c r="R17">
-        <v>1700.234382957214</v>
+        <v>2882.591840464588</v>
       </c>
       <c r="S17">
-        <v>0.005260105085174413</v>
+        <v>0.006084996213990245</v>
       </c>
       <c r="T17">
-        <v>0.005260105085174411</v>
+        <v>0.006084996213990245</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H18">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I18">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J18">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>231.2697492663047</v>
+        <v>426.4945300885423</v>
       </c>
       <c r="R18">
-        <v>2081.427743396742</v>
+        <v>3838.450770796881</v>
       </c>
       <c r="S18">
-        <v>0.006439423156718872</v>
+        <v>0.0081027629649165</v>
       </c>
       <c r="T18">
-        <v>0.006439423156718869</v>
+        <v>0.0081027629649165</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H19">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I19">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J19">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>753.438828729457</v>
+        <v>2861.074369084674</v>
       </c>
       <c r="R19">
-        <v>6780.949458565113</v>
+        <v>25749.66932176207</v>
       </c>
       <c r="S19">
-        <v>0.02097858218069374</v>
+        <v>0.05435616591115088</v>
       </c>
       <c r="T19">
-        <v>0.02097858218069374</v>
+        <v>0.0543561659111509</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H20">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I20">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J20">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N20">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O20">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P20">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q20">
-        <v>781.2987924713519</v>
+        <v>1222.160755495149</v>
       </c>
       <c r="R20">
-        <v>7031.689132242168</v>
+        <v>10999.44679945634</v>
       </c>
       <c r="S20">
-        <v>0.02175430877802891</v>
+        <v>0.023219240126584</v>
       </c>
       <c r="T20">
-        <v>0.0217543087780289</v>
+        <v>0.023219240126584</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H21">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I21">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J21">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q21">
-        <v>279.997888430256</v>
+        <v>462.5225778978614</v>
       </c>
       <c r="R21">
-        <v>2519.980995872304</v>
+        <v>4162.703201080752</v>
       </c>
       <c r="S21">
-        <v>0.007796198561680514</v>
+        <v>0.008787242391714745</v>
       </c>
       <c r="T21">
-        <v>0.007796198561680512</v>
+        <v>0.008787242391714746</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H22">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I22">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J22">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N22">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q22">
-        <v>404.4216502670159</v>
+        <v>559.2974297530019</v>
       </c>
       <c r="R22">
-        <v>3639.794852403144</v>
+        <v>5033.676867777017</v>
       </c>
       <c r="S22">
-        <v>0.01126062594900436</v>
+        <v>0.01062582092022324</v>
       </c>
       <c r="T22">
-        <v>0.01126062594900436</v>
+        <v>0.01062582092022324</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H23">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I23">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J23">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N23">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O23">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P23">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q23">
-        <v>128.463597355568</v>
+        <v>180.8551070296329</v>
       </c>
       <c r="R23">
-        <v>1156.172376200112</v>
+        <v>1627.695963266696</v>
       </c>
       <c r="S23">
-        <v>0.003576911663679393</v>
+        <v>0.003435978564488248</v>
       </c>
       <c r="T23">
-        <v>0.003576911663679392</v>
+        <v>0.003435978564488248</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H24">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I24">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J24">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N24">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O24">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P24">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q24">
-        <v>157.265197217904</v>
+        <v>240.8261257232178</v>
       </c>
       <c r="R24">
-        <v>1415.386774961136</v>
+        <v>2167.43513150896</v>
       </c>
       <c r="S24">
-        <v>0.004378856966480391</v>
+        <v>0.004575338896115041</v>
       </c>
       <c r="T24">
-        <v>0.004378856966480389</v>
+        <v>0.004575338896115042</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H25">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I25">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J25">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N25">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O25">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P25">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q25">
-        <v>512.344162466856</v>
+        <v>1615.545820879854</v>
       </c>
       <c r="R25">
-        <v>4611.097462201704</v>
+        <v>14539.91238791869</v>
       </c>
       <c r="S25">
-        <v>0.0142655962332532</v>
+        <v>0.03069297241123652</v>
       </c>
       <c r="T25">
-        <v>0.0142655962332532</v>
+        <v>0.03069297241123652</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H26">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I26">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J26">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N26">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O26">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P26">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q26">
-        <v>6946.96134934908</v>
+        <v>7672.893538494112</v>
       </c>
       <c r="R26">
-        <v>62522.65214414172</v>
+        <v>69056.04184644701</v>
       </c>
       <c r="S26">
-        <v>0.1934296375714847</v>
+        <v>0.1457735872592553</v>
       </c>
       <c r="T26">
-        <v>0.1934296375714846</v>
+        <v>0.1457735872592553</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H27">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I27">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J27">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q27">
-        <v>2489.616683870232</v>
+        <v>2903.780442469154</v>
       </c>
       <c r="R27">
-        <v>22406.5501548321</v>
+        <v>26134.02398222238</v>
       </c>
       <c r="S27">
-        <v>0.06932032994512954</v>
+        <v>0.05516751791072971</v>
       </c>
       <c r="T27">
-        <v>0.06932032994512954</v>
+        <v>0.05516751791072972</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H28">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I28">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J28">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N28">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q28">
-        <v>3595.937431770634</v>
+        <v>3511.346290210024</v>
       </c>
       <c r="R28">
-        <v>32363.43688593571</v>
+        <v>31602.11661189021</v>
       </c>
       <c r="S28">
-        <v>0.100124477333144</v>
+        <v>0.06671036712101333</v>
       </c>
       <c r="T28">
-        <v>0.1001244773331439</v>
+        <v>0.06671036712101334</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H29">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I29">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J29">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N29">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O29">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P29">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q29">
-        <v>1142.24116845822</v>
+        <v>1135.4332692258</v>
       </c>
       <c r="R29">
-        <v>10280.17051612398</v>
+        <v>10218.8994230322</v>
       </c>
       <c r="S29">
-        <v>0.03180430754157064</v>
+        <v>0.0215715466294653</v>
       </c>
       <c r="T29">
-        <v>0.03180430754157064</v>
+        <v>0.0215715466294653</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H30">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I30">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J30">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N30">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O30">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P30">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q30">
-        <v>1398.332183792027</v>
+        <v>1511.939583769087</v>
       </c>
       <c r="R30">
-        <v>12584.98965412825</v>
+        <v>13607.45625392178</v>
       </c>
       <c r="S30">
-        <v>0.03893484847742503</v>
+        <v>0.02872460770367226</v>
       </c>
       <c r="T30">
-        <v>0.03893484847742502</v>
+        <v>0.02872460770367227</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H31">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I31">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J31">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N31">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O31">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P31">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q31">
-        <v>4555.536407478041</v>
+        <v>10142.61915581481</v>
       </c>
       <c r="R31">
-        <v>40999.82766730237</v>
+        <v>91283.57240233327</v>
       </c>
       <c r="S31">
-        <v>0.126843336522197</v>
+        <v>0.1926947078217562</v>
       </c>
       <c r="T31">
-        <v>0.1268433365221969</v>
+        <v>0.1926947078217563</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H32">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I32">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J32">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N32">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O32">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P32">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q32">
-        <v>1155.327709248621</v>
+        <v>1498.78795894243</v>
       </c>
       <c r="R32">
-        <v>10397.94938323759</v>
+        <v>13489.09163048187</v>
       </c>
       <c r="S32">
-        <v>0.03216868625549409</v>
+        <v>0.02847474635480154</v>
       </c>
       <c r="T32">
-        <v>0.03216868625549408</v>
+        <v>0.02847474635480154</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H33">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I33">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J33">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>104.738514</v>
       </c>
       <c r="O33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q33">
-        <v>414.0404697303306</v>
+        <v>567.2112014523593</v>
       </c>
       <c r="R33">
-        <v>3726.364227572976</v>
+        <v>5104.900813071235</v>
       </c>
       <c r="S33">
-        <v>0.01152845020612778</v>
+        <v>0.01077617083496903</v>
       </c>
       <c r="T33">
-        <v>0.01152845020612778</v>
+        <v>0.01077617083496903</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H34">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I34">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J34">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N34">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q34">
-        <v>598.0292600934372</v>
+        <v>685.8903375944442</v>
       </c>
       <c r="R34">
-        <v>5382.263340840935</v>
+        <v>6173.013038349997</v>
       </c>
       <c r="S34">
-        <v>0.01665139292128859</v>
+        <v>0.01303089824927075</v>
       </c>
       <c r="T34">
-        <v>0.01665139292128858</v>
+        <v>0.01303089824927075</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H35">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I35">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J35">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N35">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O35">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P35">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q35">
-        <v>189.9626046844142</v>
+        <v>221.7903459184785</v>
       </c>
       <c r="R35">
-        <v>1709.663442159728</v>
+        <v>1996.113113266307</v>
       </c>
       <c r="S35">
-        <v>0.00528927626460515</v>
+        <v>0.004213687337352669</v>
       </c>
       <c r="T35">
-        <v>0.005289276264605148</v>
+        <v>0.004213687337352669</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H36">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I36">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J36">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N36">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O36">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P36">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q36">
-        <v>232.5523113527093</v>
+        <v>295.3353687800911</v>
       </c>
       <c r="R36">
-        <v>2092.970802174384</v>
+        <v>2658.01831902082</v>
       </c>
       <c r="S36">
-        <v>0.006475134528505822</v>
+        <v>0.005610933598338235</v>
       </c>
       <c r="T36">
-        <v>0.006475134528505819</v>
+        <v>0.005610933598338235</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H37">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I37">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J37">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N37">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O37">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P37">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q37">
-        <v>757.6172051890638</v>
+        <v>1981.212874466333</v>
       </c>
       <c r="R37">
-        <v>6818.554846701575</v>
+        <v>17830.915870197</v>
       </c>
       <c r="S37">
-        <v>0.0210949239600092</v>
+        <v>0.03764010361752781</v>
       </c>
       <c r="T37">
-        <v>0.0210949239600092</v>
+        <v>0.03764010361752782</v>
       </c>
     </row>
   </sheetData>
